--- a/public/demo/demo.xlsx
+++ b/public/demo/demo.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="njZzxVPoDhNaYfrulkDHwMJHWttXamt37N8leK1ZB1I="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="iKTpLXfdOBSaG/lJ54QB81DwaUMAj5zv5mzYoIdGCm4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="133">
   <si>
     <t>Дата i час операції</t>
   </si>
@@ -51,7 +51,7 @@
     <t>15.08.2023 19:26:49</t>
   </si>
   <si>
-    <t>VIDDIL KOVBASNYJ</t>
+    <t xml:space="preserve">VIDDIL </t>
   </si>
   <si>
     <t>5499</t>
@@ -117,9 +117,6 @@
     <t>5411</t>
   </si>
   <si>
-    <t>13.08.2023 18:42:29</t>
-  </si>
-  <si>
     <t>13.08.2023 13:44:43</t>
   </si>
   <si>
@@ -132,15 +129,6 @@
     <t>13.08.2023 13:37:58</t>
   </si>
   <si>
-    <t>11.08.2023 20:05:37</t>
-  </si>
-  <si>
-    <t>Поповнення «frontlinecare»</t>
-  </si>
-  <si>
-    <t>4829</t>
-  </si>
-  <si>
     <t>11.08.2023 19:53:46</t>
   </si>
   <si>
@@ -151,15 +139,6 @@
   </si>
   <si>
     <t>L'umore</t>
-  </si>
-  <si>
-    <t>11.08.2023 17:52:33</t>
-  </si>
-  <si>
-    <t>MTB_YAKABOO.UAR</t>
-  </si>
-  <si>
-    <t>5942</t>
   </si>
   <si>
     <t>11.08.2023 11:01:33</t>
@@ -183,12 +162,6 @@
     <t>10.08.2023 11:58:36</t>
   </si>
   <si>
-    <t>10.08.2023 11:53:12</t>
-  </si>
-  <si>
-    <t>TKKlab</t>
-  </si>
-  <si>
     <t>09.08.2023 18:03:17</t>
   </si>
   <si>
@@ -204,24 +177,6 @@
     <t>09.08.2023 12:01:40</t>
   </si>
   <si>
-    <t>09.08.2023 10:29:43</t>
-  </si>
-  <si>
-    <t>Медичний центр</t>
-  </si>
-  <si>
-    <t>8099</t>
-  </si>
-  <si>
-    <t>08.08.2023 17:02:16</t>
-  </si>
-  <si>
-    <t>EVA</t>
-  </si>
-  <si>
-    <t>5977</t>
-  </si>
-  <si>
     <t>08.08.2023 15:16:49</t>
   </si>
   <si>
@@ -234,34 +189,7 @@
     <t>5945</t>
   </si>
   <si>
-    <t>08.08.2023 14:54:23</t>
-  </si>
-  <si>
-    <t>BraBraBra</t>
-  </si>
-  <si>
-    <t>5651</t>
-  </si>
-  <si>
-    <t>08.08.2023 11:40:31</t>
-  </si>
-  <si>
-    <t>FOPChernegaOS</t>
-  </si>
-  <si>
-    <t>08.08.2023 11:20:04</t>
-  </si>
-  <si>
-    <t>08.08.2023 10:24:59</t>
-  </si>
-  <si>
-    <t>07.08.2023 17:32:12</t>
-  </si>
-  <si>
-    <t>Салацинська Ганна</t>
-  </si>
-  <si>
-    <t>07.08.2023 11:52:45</t>
+    <t>07.08.2023 11:51:47</t>
   </si>
   <si>
     <t>EconomClass</t>
@@ -270,19 +198,7 @@
     <t>5931</t>
   </si>
   <si>
-    <t>07.08.2023 11:51:47</t>
-  </si>
-  <si>
     <t>07.08.2023 11:41:13</t>
-  </si>
-  <si>
-    <t>07.08.2023 11:34:42</t>
-  </si>
-  <si>
-    <t>Носорог</t>
-  </si>
-  <si>
-    <t>5943</t>
   </si>
   <si>
     <t>07.08.2023 11:08:05</t>
@@ -324,18 +240,6 @@
     <t>06.08.2023 11:49:39</t>
   </si>
   <si>
-    <t>30.07.2023 23:09:20</t>
-  </si>
-  <si>
-    <t>Canva* 03862-21460337</t>
-  </si>
-  <si>
-    <t>7333</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>28.07.2023 07:39:03</t>
   </si>
   <si>
@@ -354,12 +258,6 @@
     <t>Biedronka</t>
   </si>
   <si>
-    <t>27.07.2023 19:53:20</t>
-  </si>
-  <si>
-    <t>Скасування. Uber</t>
-  </si>
-  <si>
     <t>27.07.2023 19:22:51</t>
   </si>
   <si>
@@ -370,15 +268,6 @@
   </si>
   <si>
     <t>OKKO</t>
-  </si>
-  <si>
-    <t>27.07.2023 09:01:12</t>
-  </si>
-  <si>
-    <t>Київстар 380980183883</t>
-  </si>
-  <si>
-    <t>4814</t>
   </si>
   <si>
     <t>27.07.2023 06:48:04</t>
@@ -426,16 +315,13 @@
     <t>va 3001</t>
   </si>
   <si>
+    <t>5977</t>
+  </si>
+  <si>
     <t>26.07.2023 11:39:26</t>
   </si>
   <si>
     <t>Сільпо</t>
-  </si>
-  <si>
-    <t>26.07.2023 11:16:46</t>
-  </si>
-  <si>
-    <t>Київстар 380682031553</t>
   </si>
   <si>
     <t>26.07.2023 10:53:30</t>
@@ -486,165 +372,6 @@
     <t>25.07.2023 16:42:35</t>
   </si>
   <si>
-    <t>25.07.2023 16:38:11</t>
-  </si>
-  <si>
-    <t>25.07.2023 15:45:48</t>
-  </si>
-  <si>
-    <t>BUNNY NAILS</t>
-  </si>
-  <si>
-    <t>25.07.2023 12:58:09</t>
-  </si>
-  <si>
-    <t>KRAMNYTSYA KUMYS TA MASLO</t>
-  </si>
-  <si>
-    <t>5462</t>
-  </si>
-  <si>
-    <t>25.07.2023 12:42:26</t>
-  </si>
-  <si>
-    <t>Мамин дом</t>
-  </si>
-  <si>
-    <t>25.07.2023 12:13:23</t>
-  </si>
-  <si>
-    <t>25.07.2023 12:01:57</t>
-  </si>
-  <si>
-    <t>Hozyayushka</t>
-  </si>
-  <si>
-    <t>5200</t>
-  </si>
-  <si>
-    <t>25.07.2023 11:56:55</t>
-  </si>
-  <si>
-    <t>ModaStudio1</t>
-  </si>
-  <si>
-    <t>25.07.2023 09:21:29</t>
-  </si>
-  <si>
-    <t>Pelican rouge cafe</t>
-  </si>
-  <si>
-    <t>24.07.2023 19:27:39</t>
-  </si>
-  <si>
-    <t>24.07.2023 09:43:11</t>
-  </si>
-  <si>
-    <t>23.07.2023 20:03:51</t>
-  </si>
-  <si>
-    <t>23.07.2023 17:52:39</t>
-  </si>
-  <si>
-    <t>Ірина С.</t>
-  </si>
-  <si>
-    <t>23.07.2023 12:20:43</t>
-  </si>
-  <si>
-    <t>Gastroclab</t>
-  </si>
-  <si>
-    <t>23.07.2023 12:07:53</t>
-  </si>
-  <si>
-    <t>22.07.2023 19:35:01</t>
-  </si>
-  <si>
-    <t>22.07.2023 19:33:44</t>
-  </si>
-  <si>
-    <t>22.07.2023 08:11:23</t>
-  </si>
-  <si>
-    <t>Поповнення «Авто для ДПСУ а/р»</t>
-  </si>
-  <si>
-    <t>21.07.2023 19:37:43</t>
-  </si>
-  <si>
-    <t>21.07.2023 19:33:10</t>
-  </si>
-  <si>
-    <t>21.07.2023 18:12:14</t>
-  </si>
-  <si>
-    <t>21.07.2023 18:06:24</t>
-  </si>
-  <si>
-    <t>21.07.2023 10:50:07</t>
-  </si>
-  <si>
-    <t>Укрзалізниця</t>
-  </si>
-  <si>
-    <t>4112</t>
-  </si>
-  <si>
-    <t>20.07.2023 14:58:29</t>
-  </si>
-  <si>
-    <t>20.07.2023 14:52:29</t>
-  </si>
-  <si>
-    <t>COFFEE TEA</t>
-  </si>
-  <si>
-    <t>20.07.2023 14:46:07</t>
-  </si>
-  <si>
-    <t>FOP Konradiy Oleksandr Yu</t>
-  </si>
-  <si>
-    <t>20.07.2023 09:33:44</t>
-  </si>
-  <si>
-    <t>Каса Унiверсал Банку</t>
-  </si>
-  <si>
-    <t>6010</t>
-  </si>
-  <si>
-    <t>19.07.2023 18:19:54</t>
-  </si>
-  <si>
-    <t>19.07.2023 17:40:55</t>
-  </si>
-  <si>
-    <t>Дарія О.</t>
-  </si>
-  <si>
-    <t>19.07.2023 17:32:11</t>
-  </si>
-  <si>
-    <t>Fruteka</t>
-  </si>
-  <si>
-    <t>19.07.2023 17:28:02</t>
-  </si>
-  <si>
-    <t>MIaSO VD ShEFA</t>
-  </si>
-  <si>
-    <t>19.07.2023 17:08:12</t>
-  </si>
-  <si>
-    <t>Астра Дент</t>
-  </si>
-  <si>
-    <t>8021</t>
-  </si>
-  <si>
     <t>18.07.2023 17:14:40</t>
   </si>
   <si>
@@ -660,43 +387,13 @@
     <t>18.07.2023 16:16:31</t>
   </si>
   <si>
-    <t>17.07.2023 22:14:27</t>
-  </si>
-  <si>
-    <t>Поповнення «Планшет і батареї»</t>
-  </si>
-  <si>
     <t>16.07.2023 19:09:23</t>
   </si>
   <si>
-    <t>16.07.2023 19:05:19</t>
+    <t>VIDDIL KOVBASNYJ</t>
   </si>
   <si>
-    <t>16.07.2023 18:59:13</t>
-  </si>
-  <si>
-    <t>P24 *Krutenko Yuliia</t>
-  </si>
-  <si>
-    <t>6012</t>
-  </si>
-  <si>
-    <t>16.07.2023 18:34:50</t>
-  </si>
-  <si>
-    <t>P24 *Lysenko Natalia</t>
-  </si>
-  <si>
-    <t>16.07.2023 18:32:43</t>
-  </si>
-  <si>
-    <t>P24 *Skrypchenko Yuliia</t>
-  </si>
-  <si>
-    <t>16.07.2023 18:12:14</t>
-  </si>
-  <si>
-    <t>Анастасія П.</t>
+    <t>16.07.2023 19:05:19</t>
   </si>
   <si>
     <t>16.07.2023 18:06:28</t>
@@ -706,6 +403,9 @@
   </si>
   <si>
     <t>16.07.2023 09:45:54</t>
+  </si>
+  <si>
+    <t>Pelican rouge cafe</t>
   </si>
   <si>
     <t>15.07.2023 18:54:41</t>
@@ -766,13 +466,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1586,7 +1289,7 @@
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1923,16 +1626,16 @@
         <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1">
-        <v>-266.69</v>
+        <v>-86.0</v>
       </c>
       <c r="E28" s="1">
-        <v>-266.69</v>
+        <v>-86.0</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1943,11 +1646,11 @@
       <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="1">
-        <v>2.66</v>
+      <c r="I28" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J28" s="1">
-        <v>105443.6</v>
+        <v>105710.29</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1968,19 +1671,19 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D29" s="1">
-        <v>-86.0</v>
+        <v>-751.0</v>
       </c>
       <c r="E29" s="1">
-        <v>-86.0</v>
+        <v>-751.0</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1995,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="J29" s="1">
-        <v>105710.29</v>
+        <v>105796.29</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2019,16 +1722,16 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1">
-        <v>-751.0</v>
+        <v>-87.0</v>
       </c>
       <c r="E30" s="1">
-        <v>-751.0</v>
+        <v>-87.0</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -2039,11 +1742,11 @@
       <c r="H30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
+      <c r="I30" s="1">
+        <v>1.74</v>
       </c>
       <c r="J30" s="1">
-        <v>105796.29</v>
+        <v>107307.03</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2064,19 +1767,19 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1">
-        <v>-100.0</v>
+        <v>-45.0</v>
       </c>
       <c r="E31" s="1">
-        <v>-100.0</v>
+        <v>-45.0</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -2087,11 +1790,11 @@
       <c r="H31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>14</v>
+      <c r="I31" s="1">
+        <v>0.9</v>
       </c>
       <c r="J31" s="1">
-        <v>107207.03</v>
+        <v>107394.03</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2118,13 +1821,13 @@
         <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1">
-        <v>-87.0</v>
+        <v>-750.0</v>
       </c>
       <c r="E32" s="1">
-        <v>-87.0</v>
+        <v>-750.0</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
@@ -2135,11 +1838,11 @@
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="1">
-        <v>1.74</v>
+      <c r="I32" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J32" s="1">
-        <v>107307.03</v>
+        <v>108562.73</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2160,19 +1863,19 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1">
-        <v>-45.0</v>
+        <v>-62.0</v>
       </c>
       <c r="E33" s="1">
-        <v>-45.0</v>
+        <v>-62.0</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>13</v>
@@ -2183,11 +1886,11 @@
       <c r="H33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="1">
-        <v>0.9</v>
+      <c r="I33" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J33" s="1">
-        <v>107394.03</v>
+        <v>109312.73</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2208,19 +1911,19 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1">
-        <v>-343.0</v>
+        <v>-77.0</v>
       </c>
       <c r="E34" s="1">
-        <v>-343.0</v>
+        <v>-77.0</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -2231,11 +1934,11 @@
       <c r="H34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>14</v>
+      <c r="I34" s="1">
+        <v>1.54</v>
       </c>
       <c r="J34" s="1">
-        <v>107439.03</v>
+        <v>109374.73</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2259,16 +1962,16 @@
         <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1">
-        <v>-750.0</v>
+        <v>-121.0</v>
       </c>
       <c r="E35" s="1">
-        <v>-750.0</v>
+        <v>-121.0</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
@@ -2283,7 +1986,7 @@
         <v>14</v>
       </c>
       <c r="J35" s="1">
-        <v>108562.73</v>
+        <v>109591.73</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2304,19 +2007,19 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1">
-        <v>-62.0</v>
+        <v>-80.0</v>
       </c>
       <c r="E36" s="1">
-        <v>-62.0</v>
+        <v>-80.0</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
@@ -2327,11 +2030,11 @@
       <c r="H36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>14</v>
+      <c r="I36" s="1">
+        <v>0.8</v>
       </c>
       <c r="J36" s="1">
-        <v>109312.73</v>
+        <v>109712.73</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2352,19 +2055,19 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="1">
-        <v>-77.0</v>
+        <v>-20.0</v>
       </c>
       <c r="E37" s="1">
-        <v>-77.0</v>
+        <v>-20.0</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -2376,10 +2079,10 @@
         <v>14</v>
       </c>
       <c r="I37" s="1">
-        <v>1.54</v>
+        <v>0.4</v>
       </c>
       <c r="J37" s="1">
-        <v>109374.73</v>
+        <v>109792.73</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2400,19 +2103,19 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="1">
-        <v>-75.0</v>
+        <v>-252.0</v>
       </c>
       <c r="E38" s="1">
-        <v>-75.0</v>
+        <v>-252.0</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
@@ -2424,10 +2127,10 @@
         <v>14</v>
       </c>
       <c r="I38" s="1">
-        <v>1.5</v>
+        <v>5.04</v>
       </c>
       <c r="J38" s="1">
-        <v>109451.73</v>
+        <v>109812.73</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2448,19 +2151,19 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1">
-        <v>-121.0</v>
+        <v>-69.0</v>
       </c>
       <c r="E39" s="1">
-        <v>-121.0</v>
+        <v>-69.0</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
@@ -2475,7 +2178,7 @@
         <v>14</v>
       </c>
       <c r="J39" s="1">
-        <v>109591.73</v>
+        <v>126953.01</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2496,19 +2199,19 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D40" s="1">
-        <v>-80.0</v>
+        <v>-222.9</v>
       </c>
       <c r="E40" s="1">
-        <v>-80.0</v>
+        <v>-222.9</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -2519,11 +2222,11 @@
       <c r="H40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="1">
-        <v>0.8</v>
+      <c r="I40" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J40" s="1">
-        <v>109712.73</v>
+        <v>127022.01</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2544,19 +2247,19 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1">
-        <v>-20.0</v>
+        <v>-174.88</v>
       </c>
       <c r="E41" s="1">
-        <v>-20.0</v>
+        <v>-174.88</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>13</v>
@@ -2567,11 +2270,11 @@
       <c r="H41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="1">
-        <v>0.4</v>
+      <c r="I41" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J41" s="1">
-        <v>109792.73</v>
+        <v>132304.91</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2592,19 +2295,19 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1">
-        <v>-252.0</v>
+        <v>-45.0</v>
       </c>
       <c r="E42" s="1">
-        <v>-252.0</v>
+        <v>-45.0</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>13</v>
@@ -2616,10 +2319,10 @@
         <v>14</v>
       </c>
       <c r="I42" s="1">
-        <v>5.04</v>
+        <v>0.9</v>
       </c>
       <c r="J42" s="1">
-        <v>109812.73</v>
+        <v>132479.79</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2640,19 +2343,19 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D43" s="1">
-        <v>-400.0</v>
+        <v>-651.0</v>
       </c>
       <c r="E43" s="1">
-        <v>-400.0</v>
+        <v>-651.0</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>13</v>
@@ -2667,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="J43" s="1">
-        <v>110064.73</v>
+        <v>133482.79</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2688,19 +2391,19 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D44" s="1">
-        <v>-788.28</v>
+        <v>-395.0</v>
       </c>
       <c r="E44" s="1">
-        <v>-788.28</v>
+        <v>-395.0</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>13</v>
@@ -2715,7 +2418,7 @@
         <v>14</v>
       </c>
       <c r="J44" s="1">
-        <v>126164.73</v>
+        <v>134133.79</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2736,19 +2439,19 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D45" s="1">
-        <v>-69.0</v>
+        <v>-199.9</v>
       </c>
       <c r="E45" s="1">
-        <v>-69.0</v>
+        <v>-199.9</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
@@ -2763,7 +2466,7 @@
         <v>14</v>
       </c>
       <c r="J45" s="1">
-        <v>126953.01</v>
+        <v>134528.79</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2784,19 +2487,19 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1">
-        <v>-222.9</v>
+        <v>-303.7</v>
       </c>
       <c r="E46" s="1">
-        <v>-222.9</v>
+        <v>-303.7</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
@@ -2811,7 +2514,7 @@
         <v>14</v>
       </c>
       <c r="J46" s="1">
-        <v>127022.01</v>
+        <v>134728.69</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2832,19 +2535,19 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D47" s="1">
-        <v>-2239.0</v>
+        <v>-281.0</v>
       </c>
       <c r="E47" s="1">
-        <v>-2239.0</v>
+        <v>-281.0</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
@@ -2855,11 +2558,11 @@
       <c r="H47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>14</v>
+      <c r="I47" s="1">
+        <v>5.62</v>
       </c>
       <c r="J47" s="1">
-        <v>127244.91</v>
+        <v>135032.39</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2880,34 +2583,34 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D48" s="1">
-        <v>-110.0</v>
+        <v>-94.35</v>
       </c>
       <c r="E48" s="1">
-        <v>-110.0</v>
+        <v>-10.0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
+      </c>
+      <c r="G48" s="1">
+        <v>9.435</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="1">
-        <v>2.2</v>
+      <c r="I48" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J48" s="1">
-        <v>129483.91</v>
+        <v>139587.38</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2928,34 +2631,34 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-747.31</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-79.47</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="1">
-        <v>-45.0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>-45.0</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>14</v>
+      <c r="G49" s="1">
+        <v>9.4036</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="1">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="J49" s="1">
-        <v>129593.91</v>
+        <v>139681.73</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2976,25 +2679,25 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1">
-        <v>-70.0</v>
+        <v>-540.27</v>
       </c>
       <c r="E50" s="1">
-        <v>-70.0</v>
+        <v>-57.42</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
+      </c>
+      <c r="G50" s="1">
+        <v>9.409</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>14</v>
@@ -3003,7 +2706,7 @@
         <v>14</v>
       </c>
       <c r="J50" s="1">
-        <v>129638.91</v>
+        <v>140341.43</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3024,19 +2727,19 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D51" s="1">
-        <v>-2590.0</v>
+        <v>-455.0</v>
       </c>
       <c r="E51" s="1">
-        <v>-2590.0</v>
+        <v>-455.0</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>13</v>
@@ -3051,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="J51" s="1">
-        <v>129708.91</v>
+        <v>140881.7</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3072,19 +2775,19 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D52" s="1">
-        <v>-6.0</v>
+        <v>-40.0</v>
       </c>
       <c r="E52" s="1">
-        <v>-6.0</v>
+        <v>-40.0</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>13</v>
@@ -3099,7 +2802,7 @@
         <v>14</v>
       </c>
       <c r="J52" s="1">
-        <v>132298.91</v>
+        <v>141536.7</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3120,19 +2823,19 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D53" s="1">
-        <v>-174.88</v>
+        <v>-40.0</v>
       </c>
       <c r="E53" s="1">
-        <v>-174.88</v>
+        <v>-40.0</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>13</v>
@@ -3143,11 +2846,11 @@
       <c r="H53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>14</v>
+      <c r="I53" s="1">
+        <v>0.0</v>
       </c>
       <c r="J53" s="1">
-        <v>132304.91</v>
+        <v>141576.7</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3168,19 +2871,19 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D54" s="1">
-        <v>-45.0</v>
+        <v>-258.0</v>
       </c>
       <c r="E54" s="1">
-        <v>-45.0</v>
+        <v>-258.0</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>13</v>
@@ -3191,11 +2894,11 @@
       <c r="H54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="1">
-        <v>0.9</v>
+      <c r="I54" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J54" s="1">
-        <v>132479.79</v>
+        <v>141616.7</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3216,19 +2919,19 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D55" s="1">
-        <v>-958.0</v>
+        <v>-305.15</v>
       </c>
       <c r="E55" s="1">
-        <v>-958.0</v>
+        <v>-305.15</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>13</v>
@@ -3239,11 +2942,11 @@
       <c r="H55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>14</v>
+      <c r="I55" s="1">
+        <v>1.73</v>
       </c>
       <c r="J55" s="1">
-        <v>132524.79</v>
+        <v>141874.7</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3264,19 +2967,19 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D56" s="1">
-        <v>-651.0</v>
+        <v>-542.1</v>
       </c>
       <c r="E56" s="1">
-        <v>-651.0</v>
+        <v>-542.1</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>13</v>
@@ -3287,11 +2990,11 @@
       <c r="H56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>14</v>
+      <c r="I56" s="1">
+        <v>10.84</v>
       </c>
       <c r="J56" s="1">
-        <v>133482.79</v>
+        <v>142179.85</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3312,19 +3015,19 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D57" s="1">
-        <v>-395.0</v>
+        <v>-1255.05</v>
       </c>
       <c r="E57" s="1">
-        <v>-395.0</v>
+        <v>-1255.05</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>13</v>
@@ -3335,11 +3038,11 @@
       <c r="H57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>14</v>
+      <c r="I57" s="1">
+        <v>25.1</v>
       </c>
       <c r="J57" s="1">
-        <v>134133.79</v>
+        <v>142721.95</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -3360,19 +3063,19 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1">
-        <v>-199.9</v>
+        <v>-94.87</v>
       </c>
       <c r="E58" s="1">
-        <v>-199.9</v>
+        <v>-94.87</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>13</v>
@@ -3383,11 +3086,11 @@
       <c r="H58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>14</v>
+      <c r="I58" s="1">
+        <v>1.89</v>
       </c>
       <c r="J58" s="1">
-        <v>134528.79</v>
+        <v>143977.0</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3408,19 +3111,19 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1">
-        <v>-303.7</v>
+        <v>-547.6</v>
       </c>
       <c r="E59" s="1">
-        <v>-303.7</v>
+        <v>-547.6</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>13</v>
@@ -3431,11 +3134,11 @@
       <c r="H59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>14</v>
+      <c r="I59" s="1">
+        <v>5.47</v>
       </c>
       <c r="J59" s="1">
-        <v>134728.69</v>
+        <v>144071.87</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3456,19 +3159,19 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="1">
-        <v>-281.0</v>
+        <v>-178.0</v>
       </c>
       <c r="E60" s="1">
-        <v>-281.0</v>
+        <v>-178.0</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>13</v>
@@ -3479,11 +3182,11 @@
       <c r="H60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="1">
-        <v>5.62</v>
+      <c r="I60" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J60" s="1">
-        <v>135032.39</v>
+        <v>144819.47</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -3504,34 +3207,34 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D61" s="1">
-        <v>-486.35</v>
+        <v>-990.0</v>
       </c>
       <c r="E61" s="1">
-        <v>-12.99</v>
+        <v>-990.0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="1">
-        <v>37.4403</v>
+        <v>13</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>14</v>
+      <c r="I61" s="1">
+        <v>19.8</v>
       </c>
       <c r="J61" s="1">
-        <v>139101.03</v>
+        <v>144997.47</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -3552,34 +3255,34 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D62" s="1">
-        <v>-94.35</v>
+        <v>-480.8</v>
       </c>
       <c r="E62" s="1">
-        <v>-10.0</v>
+        <v>-480.8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G62" s="1">
-        <v>9.435</v>
+        <v>13</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>14</v>
+      <c r="I62" s="1">
+        <v>9.61</v>
       </c>
       <c r="J62" s="1">
-        <v>139587.38</v>
+        <v>145987.47</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3600,34 +3303,34 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D63" s="1">
-        <v>-747.31</v>
+        <v>-1636.0</v>
       </c>
       <c r="E63" s="1">
-        <v>-79.47</v>
+        <v>-1636.0</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G63" s="1">
-        <v>9.4036</v>
+        <v>13</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I63" s="1">
-        <v>0.0</v>
+      <c r="I63" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J63" s="1">
-        <v>139681.73</v>
+        <v>146468.27</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -3654,19 +3357,19 @@
         <v>113</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D64" s="1">
-        <v>87.61</v>
+        <v>-335.0</v>
       </c>
       <c r="E64" s="1">
-        <v>9.29</v>
+        <v>-335.0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G64" s="1">
-        <v>9.4305</v>
+        <v>13</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>14</v>
@@ -3675,7 +3378,7 @@
         <v>14</v>
       </c>
       <c r="J64" s="1">
-        <v>140429.04</v>
+        <v>148104.27</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3699,22 +3402,22 @@
         <v>114</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D65" s="1">
-        <v>-540.27</v>
+        <v>-584.0</v>
       </c>
       <c r="E65" s="1">
-        <v>-57.42</v>
+        <v>-584.0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G65" s="1">
-        <v>9.409</v>
+        <v>13</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>14</v>
@@ -3723,7 +3426,7 @@
         <v>14</v>
       </c>
       <c r="J65" s="1">
-        <v>140341.43</v>
+        <v>148439.27</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3744,19 +3447,19 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D66" s="1">
-        <v>-455.0</v>
+        <v>-128.8</v>
       </c>
       <c r="E66" s="1">
-        <v>-455.0</v>
+        <v>-128.8</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>13</v>
@@ -3767,11 +3470,11 @@
       <c r="H66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>14</v>
+      <c r="I66" s="1">
+        <v>1.28</v>
       </c>
       <c r="J66" s="1">
-        <v>140881.7</v>
+        <v>149023.27</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3792,19 +3495,19 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1">
-        <v>-200.0</v>
+        <v>-55.0</v>
       </c>
       <c r="E67" s="1">
-        <v>-200.0</v>
+        <v>-55.0</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>13</v>
@@ -3819,7 +3522,7 @@
         <v>14</v>
       </c>
       <c r="J67" s="1">
-        <v>141336.7</v>
+        <v>149152.07</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -3840,19 +3543,19 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D68" s="1">
-        <v>-40.0</v>
+        <v>-50.0</v>
       </c>
       <c r="E68" s="1">
-        <v>-40.0</v>
+        <v>-50.0</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>13</v>
@@ -3867,7 +3570,7 @@
         <v>14</v>
       </c>
       <c r="J68" s="1">
-        <v>141536.7</v>
+        <v>146629.73</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3888,19 +3591,19 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D69" s="1">
-        <v>-40.0</v>
+        <v>-990.0</v>
       </c>
       <c r="E69" s="1">
-        <v>-40.0</v>
+        <v>-990.0</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>13</v>
@@ -3912,10 +3615,10 @@
         <v>14</v>
       </c>
       <c r="I69" s="1">
-        <v>0.0</v>
+        <v>19.8</v>
       </c>
       <c r="J69" s="1">
-        <v>141576.7</v>
+        <v>146679.73</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3936,19 +3639,19 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D70" s="1">
-        <v>-258.0</v>
+        <v>-206.8</v>
       </c>
       <c r="E70" s="1">
-        <v>-258.0</v>
+        <v>-206.8</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>13</v>
@@ -3959,11 +3662,11 @@
       <c r="H70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>14</v>
+      <c r="I70" s="1">
+        <v>2.06</v>
       </c>
       <c r="J70" s="1">
-        <v>141616.7</v>
+        <v>147669.73</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3984,19 +3687,19 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D71" s="1">
-        <v>-305.15</v>
+        <v>-458.2</v>
       </c>
       <c r="E71" s="1">
-        <v>-305.15</v>
+        <v>-458.2</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>13</v>
@@ -4008,10 +3711,10 @@
         <v>14</v>
       </c>
       <c r="I71" s="1">
-        <v>1.73</v>
+        <v>4.58</v>
       </c>
       <c r="J71" s="1">
-        <v>141874.7</v>
+        <v>147926.53</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -4032,19 +3735,19 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D72" s="1">
-        <v>-542.1</v>
+        <v>-270.9</v>
       </c>
       <c r="E72" s="1">
-        <v>-542.1</v>
+        <v>-270.9</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>13</v>
@@ -4056,10 +3759,10 @@
         <v>14</v>
       </c>
       <c r="I72" s="1">
-        <v>10.84</v>
+        <v>2.7</v>
       </c>
       <c r="J72" s="1">
-        <v>142179.85</v>
+        <v>148384.73</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -4080,19 +3783,19 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D73" s="1">
-        <v>-1255.05</v>
+        <v>-85.0</v>
       </c>
       <c r="E73" s="1">
-        <v>-1255.05</v>
+        <v>-85.0</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>13</v>
@@ -4103,11 +3806,11 @@
       <c r="H73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I73" s="1">
-        <v>25.1</v>
+      <c r="I73" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J73" s="1">
-        <v>142721.95</v>
+        <v>149050.63</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -4128,19 +3831,19 @@
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D74" s="1">
-        <v>-94.87</v>
+        <v>-160.0</v>
       </c>
       <c r="E74" s="1">
-        <v>-94.87</v>
+        <v>-160.0</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>13</v>
@@ -4151,11 +3854,11 @@
       <c r="H74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="1">
-        <v>1.89</v>
+      <c r="I74" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J74" s="1">
-        <v>143977.0</v>
+        <v>59135.63</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -4176,19 +3879,19 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="D75" s="1">
-        <v>-547.6</v>
+        <v>-700.0</v>
       </c>
       <c r="E75" s="1">
-        <v>-547.6</v>
+        <v>-700.0</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>13</v>
@@ -4200,10 +3903,10 @@
         <v>14</v>
       </c>
       <c r="I75" s="1">
-        <v>5.47</v>
+        <v>5.25</v>
       </c>
       <c r="J75" s="1">
-        <v>144071.87</v>
+        <v>59295.63</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -4223,36 +3926,16 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" s="1">
-        <v>-200.0</v>
-      </c>
-      <c r="E76" s="1">
-        <v>-200.0</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" s="1">
-        <v>144619.47</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -4271,36 +3954,16 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="1">
-        <v>-178.0</v>
-      </c>
-      <c r="E77" s="1">
-        <v>-178.0</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77" s="1">
-        <v>144819.47</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -4319,36 +3982,16 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D78" s="1">
-        <v>-990.0</v>
-      </c>
-      <c r="E78" s="1">
-        <v>-990.0</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="1">
-        <v>19.8</v>
-      </c>
-      <c r="J78" s="1">
-        <v>144997.47</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -4367,36 +4010,16 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="1">
-        <v>-480.8</v>
-      </c>
-      <c r="E79" s="1">
-        <v>-480.8</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" s="1">
-        <v>9.61</v>
-      </c>
-      <c r="J79" s="1">
-        <v>145987.47</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -4415,36 +4038,16 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="1">
-        <v>-1636.0</v>
-      </c>
-      <c r="E80" s="1">
-        <v>-1636.0</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" s="1">
-        <v>146468.27</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -4463,36 +4066,16 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D81" s="1">
-        <v>-335.0</v>
-      </c>
-      <c r="E81" s="1">
-        <v>-335.0</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" s="1">
-        <v>148104.27</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -4511,36 +4094,16 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D82" s="1">
-        <v>-584.0</v>
-      </c>
-      <c r="E82" s="1">
-        <v>-584.0</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" s="1">
-        <v>148439.27</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -4559,36 +4122,16 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="1">
-        <v>-128.8</v>
-      </c>
-      <c r="E83" s="1">
-        <v>-128.8</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="J83" s="1">
-        <v>149023.27</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -4607,36 +4150,16 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="1">
-        <v>-55.0</v>
-      </c>
-      <c r="E84" s="1">
-        <v>-55.0</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" s="1">
-        <v>149152.07</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -4655,36 +4178,16 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D85" s="1">
-        <v>-125.44</v>
-      </c>
-      <c r="E85" s="1">
-        <v>-125.44</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="J85" s="1">
-        <v>149207.07</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -4703,36 +4206,16 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" s="1">
-        <v>-800.0</v>
-      </c>
-      <c r="E86" s="1">
-        <v>-800.0</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="J86" s="1">
-        <v>149332.51</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -4751,36 +4234,16 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D87" s="1">
-        <v>-110.0</v>
-      </c>
-      <c r="E87" s="1">
-        <v>-110.0</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="J87" s="1">
-        <v>150132.51</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -4799,36 +4262,16 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" s="1">
-        <v>-317.5</v>
-      </c>
-      <c r="E88" s="1">
-        <v>-317.5</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" s="1">
-        <v>150242.51</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -4847,36 +4290,16 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D89" s="1">
-        <v>-85.0</v>
-      </c>
-      <c r="E89" s="1">
-        <v>-85.0</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="J89" s="1">
-        <v>150560.01</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -4895,36 +4318,16 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D90" s="1">
-        <v>-55.0</v>
-      </c>
-      <c r="E90" s="1">
-        <v>-55.0</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" s="1">
-        <v>150645.01</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -4943,36 +4346,16 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" s="1">
-        <v>-850.0</v>
-      </c>
-      <c r="E91" s="1">
-        <v>-850.0</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="J91" s="1">
-        <v>150700.01</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -4991,36 +4374,16 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="1">
-        <v>-121.0</v>
-      </c>
-      <c r="E92" s="1">
-        <v>-121.0</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92" s="1">
-        <v>151550.01</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -5039,36 +4402,16 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="1">
-        <v>-435.18</v>
-      </c>
-      <c r="E93" s="1">
-        <v>-435.18</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" s="1">
-        <v>4.35</v>
-      </c>
-      <c r="J93" s="1">
-        <v>151671.01</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -5087,36 +4430,16 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D94" s="1">
-        <v>-96.1</v>
-      </c>
-      <c r="E94" s="1">
-        <v>-96.1</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="J94" s="1">
-        <v>152106.19</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -5135,36 +4458,16 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" s="1">
-        <v>-84.5</v>
-      </c>
-      <c r="E95" s="1">
-        <v>-84.5</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="J95" s="1">
-        <v>152202.29</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -5183,36 +4486,16 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D96" s="1">
-        <v>-6500.0</v>
-      </c>
-      <c r="E96" s="1">
-        <v>-6500.0</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" s="1">
-        <v>152286.79</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -5231,36 +4514,16 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="1">
-        <v>-126.28</v>
-      </c>
-      <c r="E97" s="1">
-        <v>-126.28</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" s="1">
-        <v>1.26</v>
-      </c>
-      <c r="J97" s="1">
-        <v>158786.79</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -5279,36 +4542,16 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="1">
-        <v>-59.0</v>
-      </c>
-      <c r="E98" s="1">
-        <v>-59.0</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" s="1">
-        <v>158913.07</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -5327,36 +4570,16 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="1">
-        <v>-39.0</v>
-      </c>
-      <c r="E99" s="1">
-        <v>-39.0</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="J99" s="1">
-        <v>158972.07</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
@@ -5375,36 +4598,16 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D100" s="1">
-        <v>-123.07</v>
-      </c>
-      <c r="E100" s="1">
-        <v>-123.07</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="1">
-        <v>2.46</v>
-      </c>
-      <c r="J100" s="1">
-        <v>159011.07</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -5423,36 +4626,16 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" s="1">
-        <v>-50.0</v>
-      </c>
-      <c r="E101" s="1">
-        <v>-50.0</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101" s="1">
-        <v>159134.14</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -5471,36 +4654,16 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="1">
-        <v>-196.0</v>
-      </c>
-      <c r="E102" s="1">
-        <v>-196.0</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" s="1">
-        <v>1.96</v>
-      </c>
-      <c r="J102" s="1">
-        <v>159184.14</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -5519,36 +4682,16 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D103" s="1">
-        <v>-1061.5</v>
-      </c>
-      <c r="E103" s="1">
-        <v>-1061.5</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="1">
-        <v>10.61</v>
-      </c>
-      <c r="J103" s="1">
-        <v>159380.14</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -5567,36 +4710,16 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D104" s="1">
-        <v>-313.0</v>
-      </c>
-      <c r="E104" s="1">
-        <v>-313.0</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I104" s="1">
-        <v>6.26</v>
-      </c>
-      <c r="J104" s="1">
-        <v>160441.64</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
@@ -5615,36 +4738,16 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D105" s="1">
-        <v>-184.33</v>
-      </c>
-      <c r="E105" s="1">
-        <v>-184.33</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" s="1">
-        <v>3.68</v>
-      </c>
-      <c r="J105" s="1">
-        <v>160754.64</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
@@ -5663,36 +4766,16 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-3144.6</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-3144.6</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" s="1">
-        <v>120938.97</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -5711,36 +4794,16 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D107" s="1">
-        <v>-893.79</v>
-      </c>
-      <c r="E107" s="1">
-        <v>-893.79</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I107" s="1">
-        <v>17.87</v>
-      </c>
-      <c r="J107" s="1">
-        <v>130683.57</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
@@ -5759,36 +4822,16 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="1">
-        <v>-151.0</v>
-      </c>
-      <c r="E108" s="1">
-        <v>-151.0</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J108" s="1">
-        <v>131577.36</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -5807,36 +4850,16 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D109" s="1">
-        <v>-654.98</v>
-      </c>
-      <c r="E109" s="1">
-        <v>-654.98</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" s="1">
-        <v>6.54</v>
-      </c>
-      <c r="J109" s="1">
-        <v>131728.36</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
@@ -5855,36 +4878,16 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D110" s="1">
-        <v>-100864.89</v>
-      </c>
-      <c r="E110" s="1">
-        <v>-100864.89</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" s="1">
-        <v>864.89</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" s="1">
-        <v>133183.34</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
@@ -5903,36 +4906,16 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="1">
-        <v>-80.0</v>
-      </c>
-      <c r="E111" s="1">
-        <v>-80.0</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" s="1">
-        <v>134048.23</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -5951,36 +4934,16 @@
       <c r="Z111" s="1"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D112" s="1">
-        <v>-202.0</v>
-      </c>
-      <c r="E112" s="1">
-        <v>-202.0</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112" s="1">
-        <v>134128.23</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
@@ -5999,36 +4962,16 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="1">
-        <v>-170.0</v>
-      </c>
-      <c r="E113" s="1">
-        <v>-170.0</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J113" s="1">
-        <v>134330.23</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
@@ -6047,36 +4990,16 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="1">
-        <v>-489.5</v>
-      </c>
-      <c r="E114" s="1">
-        <v>-489.5</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="1">
-        <v>4.89</v>
-      </c>
-      <c r="J114" s="1">
-        <v>134500.23</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -6095,36 +5018,16 @@
       <c r="Z114" s="1"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D115" s="1">
-        <v>-11640.0</v>
-      </c>
-      <c r="E115" s="1">
-        <v>-11640.0</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I115" s="1">
-        <v>232.8</v>
-      </c>
-      <c r="J115" s="1">
-        <v>134989.73</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
@@ -6143,36 +5046,16 @@
       <c r="Z115" s="1"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D116" s="1">
-        <v>-50.0</v>
-      </c>
-      <c r="E116" s="1">
-        <v>-50.0</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J116" s="1">
-        <v>146629.73</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
@@ -6191,36 +5074,16 @@
       <c r="Z116" s="1"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D117" s="1">
-        <v>-990.0</v>
-      </c>
-      <c r="E117" s="1">
-        <v>-990.0</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I117" s="1">
-        <v>19.8</v>
-      </c>
-      <c r="J117" s="1">
-        <v>146679.73</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
@@ -6239,36 +5102,16 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="1">
-        <v>-206.8</v>
-      </c>
-      <c r="E118" s="1">
-        <v>-206.8</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" s="1">
-        <v>2.06</v>
-      </c>
-      <c r="J118" s="1">
-        <v>147669.73</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
@@ -6287,36 +5130,16 @@
       <c r="Z118" s="1"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D119" s="1">
-        <v>-50.0</v>
-      </c>
-      <c r="E119" s="1">
-        <v>-50.0</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" s="1">
-        <v>147876.53</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
@@ -6335,36 +5158,16 @@
       <c r="Z119" s="1"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="1">
-        <v>-458.2</v>
-      </c>
-      <c r="E120" s="1">
-        <v>-458.2</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I120" s="1">
-        <v>4.58</v>
-      </c>
-      <c r="J120" s="1">
-        <v>147926.53</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
@@ -6383,36 +5186,16 @@
       <c r="Z120" s="1"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D121" s="1">
-        <v>-270.9</v>
-      </c>
-      <c r="E121" s="1">
-        <v>-270.9</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I121" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="J121" s="1">
-        <v>148384.73</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
@@ -6431,36 +5214,16 @@
       <c r="Z121" s="1"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D122" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="E122" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122" s="1">
-        <v>148655.63</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -6479,36 +5242,16 @@
       <c r="Z122" s="1"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D123" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="E123" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123" s="1">
-        <v>148505.63</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -6527,36 +5270,16 @@
       <c r="Z123" s="1"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D124" s="1">
-        <v>470.0</v>
-      </c>
-      <c r="E124" s="1">
-        <v>470.0</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J124" s="1">
-        <v>148355.63</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -6575,36 +5298,16 @@
       <c r="Z124" s="1"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D125" s="1">
-        <v>-1165.0</v>
-      </c>
-      <c r="E125" s="1">
-        <v>-1165.0</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J125" s="1">
-        <v>147885.63</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -6623,36 +5326,16 @@
       <c r="Z125" s="1"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="1">
-        <v>-85.0</v>
-      </c>
-      <c r="E126" s="1">
-        <v>-85.0</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J126" s="1">
-        <v>149050.63</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -6671,36 +5354,16 @@
       <c r="Z126" s="1"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="1">
-        <v>-160.0</v>
-      </c>
-      <c r="E127" s="1">
-        <v>-160.0</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J127" s="1">
-        <v>59135.63</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
@@ -6719,36 +5382,16 @@
       <c r="Z127" s="1"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D128" s="1">
-        <v>-700.0</v>
-      </c>
-      <c r="E128" s="1">
-        <v>-700.0</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I128" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="J128" s="1">
-        <v>59295.63</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
@@ -28858,1490 +27501,6 @@
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
-      <c r="A918" s="1"/>
-      <c r="B918" s="1"/>
-      <c r="C918" s="1"/>
-      <c r="D918" s="1"/>
-      <c r="E918" s="1"/>
-      <c r="F918" s="1"/>
-      <c r="G918" s="1"/>
-      <c r="H918" s="1"/>
-      <c r="I918" s="1"/>
-      <c r="J918" s="1"/>
-      <c r="K918" s="1"/>
-      <c r="L918" s="1"/>
-      <c r="M918" s="1"/>
-      <c r="N918" s="1"/>
-      <c r="O918" s="1"/>
-      <c r="P918" s="1"/>
-      <c r="Q918" s="1"/>
-      <c r="R918" s="1"/>
-      <c r="S918" s="1"/>
-      <c r="T918" s="1"/>
-      <c r="U918" s="1"/>
-      <c r="V918" s="1"/>
-      <c r="W918" s="1"/>
-      <c r="X918" s="1"/>
-      <c r="Y918" s="1"/>
-      <c r="Z918" s="1"/>
-    </row>
-    <row r="919" ht="14.25" customHeight="1">
-      <c r="A919" s="1"/>
-      <c r="B919" s="1"/>
-      <c r="C919" s="1"/>
-      <c r="D919" s="1"/>
-      <c r="E919" s="1"/>
-      <c r="F919" s="1"/>
-      <c r="G919" s="1"/>
-      <c r="H919" s="1"/>
-      <c r="I919" s="1"/>
-      <c r="J919" s="1"/>
-      <c r="K919" s="1"/>
-      <c r="L919" s="1"/>
-      <c r="M919" s="1"/>
-      <c r="N919" s="1"/>
-      <c r="O919" s="1"/>
-      <c r="P919" s="1"/>
-      <c r="Q919" s="1"/>
-      <c r="R919" s="1"/>
-      <c r="S919" s="1"/>
-      <c r="T919" s="1"/>
-      <c r="U919" s="1"/>
-      <c r="V919" s="1"/>
-      <c r="W919" s="1"/>
-      <c r="X919" s="1"/>
-      <c r="Y919" s="1"/>
-      <c r="Z919" s="1"/>
-    </row>
-    <row r="920" ht="14.25" customHeight="1">
-      <c r="A920" s="1"/>
-      <c r="B920" s="1"/>
-      <c r="C920" s="1"/>
-      <c r="D920" s="1"/>
-      <c r="E920" s="1"/>
-      <c r="F920" s="1"/>
-      <c r="G920" s="1"/>
-      <c r="H920" s="1"/>
-      <c r="I920" s="1"/>
-      <c r="J920" s="1"/>
-      <c r="K920" s="1"/>
-      <c r="L920" s="1"/>
-      <c r="M920" s="1"/>
-      <c r="N920" s="1"/>
-      <c r="O920" s="1"/>
-      <c r="P920" s="1"/>
-      <c r="Q920" s="1"/>
-      <c r="R920" s="1"/>
-      <c r="S920" s="1"/>
-      <c r="T920" s="1"/>
-      <c r="U920" s="1"/>
-      <c r="V920" s="1"/>
-      <c r="W920" s="1"/>
-      <c r="X920" s="1"/>
-      <c r="Y920" s="1"/>
-      <c r="Z920" s="1"/>
-    </row>
-    <row r="921" ht="14.25" customHeight="1">
-      <c r="A921" s="1"/>
-      <c r="B921" s="1"/>
-      <c r="C921" s="1"/>
-      <c r="D921" s="1"/>
-      <c r="E921" s="1"/>
-      <c r="F921" s="1"/>
-      <c r="G921" s="1"/>
-      <c r="H921" s="1"/>
-      <c r="I921" s="1"/>
-      <c r="J921" s="1"/>
-      <c r="K921" s="1"/>
-      <c r="L921" s="1"/>
-      <c r="M921" s="1"/>
-      <c r="N921" s="1"/>
-      <c r="O921" s="1"/>
-      <c r="P921" s="1"/>
-      <c r="Q921" s="1"/>
-      <c r="R921" s="1"/>
-      <c r="S921" s="1"/>
-      <c r="T921" s="1"/>
-      <c r="U921" s="1"/>
-      <c r="V921" s="1"/>
-      <c r="W921" s="1"/>
-      <c r="X921" s="1"/>
-      <c r="Y921" s="1"/>
-      <c r="Z921" s="1"/>
-    </row>
-    <row r="922" ht="14.25" customHeight="1">
-      <c r="A922" s="1"/>
-      <c r="B922" s="1"/>
-      <c r="C922" s="1"/>
-      <c r="D922" s="1"/>
-      <c r="E922" s="1"/>
-      <c r="F922" s="1"/>
-      <c r="G922" s="1"/>
-      <c r="H922" s="1"/>
-      <c r="I922" s="1"/>
-      <c r="J922" s="1"/>
-      <c r="K922" s="1"/>
-      <c r="L922" s="1"/>
-      <c r="M922" s="1"/>
-      <c r="N922" s="1"/>
-      <c r="O922" s="1"/>
-      <c r="P922" s="1"/>
-      <c r="Q922" s="1"/>
-      <c r="R922" s="1"/>
-      <c r="S922" s="1"/>
-      <c r="T922" s="1"/>
-      <c r="U922" s="1"/>
-      <c r="V922" s="1"/>
-      <c r="W922" s="1"/>
-      <c r="X922" s="1"/>
-      <c r="Y922" s="1"/>
-      <c r="Z922" s="1"/>
-    </row>
-    <row r="923" ht="14.25" customHeight="1">
-      <c r="A923" s="1"/>
-      <c r="B923" s="1"/>
-      <c r="C923" s="1"/>
-      <c r="D923" s="1"/>
-      <c r="E923" s="1"/>
-      <c r="F923" s="1"/>
-      <c r="G923" s="1"/>
-      <c r="H923" s="1"/>
-      <c r="I923" s="1"/>
-      <c r="J923" s="1"/>
-      <c r="K923" s="1"/>
-      <c r="L923" s="1"/>
-      <c r="M923" s="1"/>
-      <c r="N923" s="1"/>
-      <c r="O923" s="1"/>
-      <c r="P923" s="1"/>
-      <c r="Q923" s="1"/>
-      <c r="R923" s="1"/>
-      <c r="S923" s="1"/>
-      <c r="T923" s="1"/>
-      <c r="U923" s="1"/>
-      <c r="V923" s="1"/>
-      <c r="W923" s="1"/>
-      <c r="X923" s="1"/>
-      <c r="Y923" s="1"/>
-      <c r="Z923" s="1"/>
-    </row>
-    <row r="924" ht="14.25" customHeight="1">
-      <c r="A924" s="1"/>
-      <c r="B924" s="1"/>
-      <c r="C924" s="1"/>
-      <c r="D924" s="1"/>
-      <c r="E924" s="1"/>
-      <c r="F924" s="1"/>
-      <c r="G924" s="1"/>
-      <c r="H924" s="1"/>
-      <c r="I924" s="1"/>
-      <c r="J924" s="1"/>
-      <c r="K924" s="1"/>
-      <c r="L924" s="1"/>
-      <c r="M924" s="1"/>
-      <c r="N924" s="1"/>
-      <c r="O924" s="1"/>
-      <c r="P924" s="1"/>
-      <c r="Q924" s="1"/>
-      <c r="R924" s="1"/>
-      <c r="S924" s="1"/>
-      <c r="T924" s="1"/>
-      <c r="U924" s="1"/>
-      <c r="V924" s="1"/>
-      <c r="W924" s="1"/>
-      <c r="X924" s="1"/>
-      <c r="Y924" s="1"/>
-      <c r="Z924" s="1"/>
-    </row>
-    <row r="925" ht="14.25" customHeight="1">
-      <c r="A925" s="1"/>
-      <c r="B925" s="1"/>
-      <c r="C925" s="1"/>
-      <c r="D925" s="1"/>
-      <c r="E925" s="1"/>
-      <c r="F925" s="1"/>
-      <c r="G925" s="1"/>
-      <c r="H925" s="1"/>
-      <c r="I925" s="1"/>
-      <c r="J925" s="1"/>
-      <c r="K925" s="1"/>
-      <c r="L925" s="1"/>
-      <c r="M925" s="1"/>
-      <c r="N925" s="1"/>
-      <c r="O925" s="1"/>
-      <c r="P925" s="1"/>
-      <c r="Q925" s="1"/>
-      <c r="R925" s="1"/>
-      <c r="S925" s="1"/>
-      <c r="T925" s="1"/>
-      <c r="U925" s="1"/>
-      <c r="V925" s="1"/>
-      <c r="W925" s="1"/>
-      <c r="X925" s="1"/>
-      <c r="Y925" s="1"/>
-      <c r="Z925" s="1"/>
-    </row>
-    <row r="926" ht="14.25" customHeight="1">
-      <c r="A926" s="1"/>
-      <c r="B926" s="1"/>
-      <c r="C926" s="1"/>
-      <c r="D926" s="1"/>
-      <c r="E926" s="1"/>
-      <c r="F926" s="1"/>
-      <c r="G926" s="1"/>
-      <c r="H926" s="1"/>
-      <c r="I926" s="1"/>
-      <c r="J926" s="1"/>
-      <c r="K926" s="1"/>
-      <c r="L926" s="1"/>
-      <c r="M926" s="1"/>
-      <c r="N926" s="1"/>
-      <c r="O926" s="1"/>
-      <c r="P926" s="1"/>
-      <c r="Q926" s="1"/>
-      <c r="R926" s="1"/>
-      <c r="S926" s="1"/>
-      <c r="T926" s="1"/>
-      <c r="U926" s="1"/>
-      <c r="V926" s="1"/>
-      <c r="W926" s="1"/>
-      <c r="X926" s="1"/>
-      <c r="Y926" s="1"/>
-      <c r="Z926" s="1"/>
-    </row>
-    <row r="927" ht="14.25" customHeight="1">
-      <c r="A927" s="1"/>
-      <c r="B927" s="1"/>
-      <c r="C927" s="1"/>
-      <c r="D927" s="1"/>
-      <c r="E927" s="1"/>
-      <c r="F927" s="1"/>
-      <c r="G927" s="1"/>
-      <c r="H927" s="1"/>
-      <c r="I927" s="1"/>
-      <c r="J927" s="1"/>
-      <c r="K927" s="1"/>
-      <c r="L927" s="1"/>
-      <c r="M927" s="1"/>
-      <c r="N927" s="1"/>
-      <c r="O927" s="1"/>
-      <c r="P927" s="1"/>
-      <c r="Q927" s="1"/>
-      <c r="R927" s="1"/>
-      <c r="S927" s="1"/>
-      <c r="T927" s="1"/>
-      <c r="U927" s="1"/>
-      <c r="V927" s="1"/>
-      <c r="W927" s="1"/>
-      <c r="X927" s="1"/>
-      <c r="Y927" s="1"/>
-      <c r="Z927" s="1"/>
-    </row>
-    <row r="928" ht="14.25" customHeight="1">
-      <c r="A928" s="1"/>
-      <c r="B928" s="1"/>
-      <c r="C928" s="1"/>
-      <c r="D928" s="1"/>
-      <c r="E928" s="1"/>
-      <c r="F928" s="1"/>
-      <c r="G928" s="1"/>
-      <c r="H928" s="1"/>
-      <c r="I928" s="1"/>
-      <c r="J928" s="1"/>
-      <c r="K928" s="1"/>
-      <c r="L928" s="1"/>
-      <c r="M928" s="1"/>
-      <c r="N928" s="1"/>
-      <c r="O928" s="1"/>
-      <c r="P928" s="1"/>
-      <c r="Q928" s="1"/>
-      <c r="R928" s="1"/>
-      <c r="S928" s="1"/>
-      <c r="T928" s="1"/>
-      <c r="U928" s="1"/>
-      <c r="V928" s="1"/>
-      <c r="W928" s="1"/>
-      <c r="X928" s="1"/>
-      <c r="Y928" s="1"/>
-      <c r="Z928" s="1"/>
-    </row>
-    <row r="929" ht="14.25" customHeight="1">
-      <c r="A929" s="1"/>
-      <c r="B929" s="1"/>
-      <c r="C929" s="1"/>
-      <c r="D929" s="1"/>
-      <c r="E929" s="1"/>
-      <c r="F929" s="1"/>
-      <c r="G929" s="1"/>
-      <c r="H929" s="1"/>
-      <c r="I929" s="1"/>
-      <c r="J929" s="1"/>
-      <c r="K929" s="1"/>
-      <c r="L929" s="1"/>
-      <c r="M929" s="1"/>
-      <c r="N929" s="1"/>
-      <c r="O929" s="1"/>
-      <c r="P929" s="1"/>
-      <c r="Q929" s="1"/>
-      <c r="R929" s="1"/>
-      <c r="S929" s="1"/>
-      <c r="T929" s="1"/>
-      <c r="U929" s="1"/>
-      <c r="V929" s="1"/>
-      <c r="W929" s="1"/>
-      <c r="X929" s="1"/>
-      <c r="Y929" s="1"/>
-      <c r="Z929" s="1"/>
-    </row>
-    <row r="930" ht="14.25" customHeight="1">
-      <c r="A930" s="1"/>
-      <c r="B930" s="1"/>
-      <c r="C930" s="1"/>
-      <c r="D930" s="1"/>
-      <c r="E930" s="1"/>
-      <c r="F930" s="1"/>
-      <c r="G930" s="1"/>
-      <c r="H930" s="1"/>
-      <c r="I930" s="1"/>
-      <c r="J930" s="1"/>
-      <c r="K930" s="1"/>
-      <c r="L930" s="1"/>
-      <c r="M930" s="1"/>
-      <c r="N930" s="1"/>
-      <c r="O930" s="1"/>
-      <c r="P930" s="1"/>
-      <c r="Q930" s="1"/>
-      <c r="R930" s="1"/>
-      <c r="S930" s="1"/>
-      <c r="T930" s="1"/>
-      <c r="U930" s="1"/>
-      <c r="V930" s="1"/>
-      <c r="W930" s="1"/>
-      <c r="X930" s="1"/>
-      <c r="Y930" s="1"/>
-      <c r="Z930" s="1"/>
-    </row>
-    <row r="931" ht="14.25" customHeight="1">
-      <c r="A931" s="1"/>
-      <c r="B931" s="1"/>
-      <c r="C931" s="1"/>
-      <c r="D931" s="1"/>
-      <c r="E931" s="1"/>
-      <c r="F931" s="1"/>
-      <c r="G931" s="1"/>
-      <c r="H931" s="1"/>
-      <c r="I931" s="1"/>
-      <c r="J931" s="1"/>
-      <c r="K931" s="1"/>
-      <c r="L931" s="1"/>
-      <c r="M931" s="1"/>
-      <c r="N931" s="1"/>
-      <c r="O931" s="1"/>
-      <c r="P931" s="1"/>
-      <c r="Q931" s="1"/>
-      <c r="R931" s="1"/>
-      <c r="S931" s="1"/>
-      <c r="T931" s="1"/>
-      <c r="U931" s="1"/>
-      <c r="V931" s="1"/>
-      <c r="W931" s="1"/>
-      <c r="X931" s="1"/>
-      <c r="Y931" s="1"/>
-      <c r="Z931" s="1"/>
-    </row>
-    <row r="932" ht="14.25" customHeight="1">
-      <c r="A932" s="1"/>
-      <c r="B932" s="1"/>
-      <c r="C932" s="1"/>
-      <c r="D932" s="1"/>
-      <c r="E932" s="1"/>
-      <c r="F932" s="1"/>
-      <c r="G932" s="1"/>
-      <c r="H932" s="1"/>
-      <c r="I932" s="1"/>
-      <c r="J932" s="1"/>
-      <c r="K932" s="1"/>
-      <c r="L932" s="1"/>
-      <c r="M932" s="1"/>
-      <c r="N932" s="1"/>
-      <c r="O932" s="1"/>
-      <c r="P932" s="1"/>
-      <c r="Q932" s="1"/>
-      <c r="R932" s="1"/>
-      <c r="S932" s="1"/>
-      <c r="T932" s="1"/>
-      <c r="U932" s="1"/>
-      <c r="V932" s="1"/>
-      <c r="W932" s="1"/>
-      <c r="X932" s="1"/>
-      <c r="Y932" s="1"/>
-      <c r="Z932" s="1"/>
-    </row>
-    <row r="933" ht="14.25" customHeight="1">
-      <c r="A933" s="1"/>
-      <c r="B933" s="1"/>
-      <c r="C933" s="1"/>
-      <c r="D933" s="1"/>
-      <c r="E933" s="1"/>
-      <c r="F933" s="1"/>
-      <c r="G933" s="1"/>
-      <c r="H933" s="1"/>
-      <c r="I933" s="1"/>
-      <c r="J933" s="1"/>
-      <c r="K933" s="1"/>
-      <c r="L933" s="1"/>
-      <c r="M933" s="1"/>
-      <c r="N933" s="1"/>
-      <c r="O933" s="1"/>
-      <c r="P933" s="1"/>
-      <c r="Q933" s="1"/>
-      <c r="R933" s="1"/>
-      <c r="S933" s="1"/>
-      <c r="T933" s="1"/>
-      <c r="U933" s="1"/>
-      <c r="V933" s="1"/>
-      <c r="W933" s="1"/>
-      <c r="X933" s="1"/>
-      <c r="Y933" s="1"/>
-      <c r="Z933" s="1"/>
-    </row>
-    <row r="934" ht="14.25" customHeight="1">
-      <c r="A934" s="1"/>
-      <c r="B934" s="1"/>
-      <c r="C934" s="1"/>
-      <c r="D934" s="1"/>
-      <c r="E934" s="1"/>
-      <c r="F934" s="1"/>
-      <c r="G934" s="1"/>
-      <c r="H934" s="1"/>
-      <c r="I934" s="1"/>
-      <c r="J934" s="1"/>
-      <c r="K934" s="1"/>
-      <c r="L934" s="1"/>
-      <c r="M934" s="1"/>
-      <c r="N934" s="1"/>
-      <c r="O934" s="1"/>
-      <c r="P934" s="1"/>
-      <c r="Q934" s="1"/>
-      <c r="R934" s="1"/>
-      <c r="S934" s="1"/>
-      <c r="T934" s="1"/>
-      <c r="U934" s="1"/>
-      <c r="V934" s="1"/>
-      <c r="W934" s="1"/>
-      <c r="X934" s="1"/>
-      <c r="Y934" s="1"/>
-      <c r="Z934" s="1"/>
-    </row>
-    <row r="935" ht="14.25" customHeight="1">
-      <c r="A935" s="1"/>
-      <c r="B935" s="1"/>
-      <c r="C935" s="1"/>
-      <c r="D935" s="1"/>
-      <c r="E935" s="1"/>
-      <c r="F935" s="1"/>
-      <c r="G935" s="1"/>
-      <c r="H935" s="1"/>
-      <c r="I935" s="1"/>
-      <c r="J935" s="1"/>
-      <c r="K935" s="1"/>
-      <c r="L935" s="1"/>
-      <c r="M935" s="1"/>
-      <c r="N935" s="1"/>
-      <c r="O935" s="1"/>
-      <c r="P935" s="1"/>
-      <c r="Q935" s="1"/>
-      <c r="R935" s="1"/>
-      <c r="S935" s="1"/>
-      <c r="T935" s="1"/>
-      <c r="U935" s="1"/>
-      <c r="V935" s="1"/>
-      <c r="W935" s="1"/>
-      <c r="X935" s="1"/>
-      <c r="Y935" s="1"/>
-      <c r="Z935" s="1"/>
-    </row>
-    <row r="936" ht="14.25" customHeight="1">
-      <c r="A936" s="1"/>
-      <c r="B936" s="1"/>
-      <c r="C936" s="1"/>
-      <c r="D936" s="1"/>
-      <c r="E936" s="1"/>
-      <c r="F936" s="1"/>
-      <c r="G936" s="1"/>
-      <c r="H936" s="1"/>
-      <c r="I936" s="1"/>
-      <c r="J936" s="1"/>
-      <c r="K936" s="1"/>
-      <c r="L936" s="1"/>
-      <c r="M936" s="1"/>
-      <c r="N936" s="1"/>
-      <c r="O936" s="1"/>
-      <c r="P936" s="1"/>
-      <c r="Q936" s="1"/>
-      <c r="R936" s="1"/>
-      <c r="S936" s="1"/>
-      <c r="T936" s="1"/>
-      <c r="U936" s="1"/>
-      <c r="V936" s="1"/>
-      <c r="W936" s="1"/>
-      <c r="X936" s="1"/>
-      <c r="Y936" s="1"/>
-      <c r="Z936" s="1"/>
-    </row>
-    <row r="937" ht="14.25" customHeight="1">
-      <c r="A937" s="1"/>
-      <c r="B937" s="1"/>
-      <c r="C937" s="1"/>
-      <c r="D937" s="1"/>
-      <c r="E937" s="1"/>
-      <c r="F937" s="1"/>
-      <c r="G937" s="1"/>
-      <c r="H937" s="1"/>
-      <c r="I937" s="1"/>
-      <c r="J937" s="1"/>
-      <c r="K937" s="1"/>
-      <c r="L937" s="1"/>
-      <c r="M937" s="1"/>
-      <c r="N937" s="1"/>
-      <c r="O937" s="1"/>
-      <c r="P937" s="1"/>
-      <c r="Q937" s="1"/>
-      <c r="R937" s="1"/>
-      <c r="S937" s="1"/>
-      <c r="T937" s="1"/>
-      <c r="U937" s="1"/>
-      <c r="V937" s="1"/>
-      <c r="W937" s="1"/>
-      <c r="X937" s="1"/>
-      <c r="Y937" s="1"/>
-      <c r="Z937" s="1"/>
-    </row>
-    <row r="938" ht="14.25" customHeight="1">
-      <c r="A938" s="1"/>
-      <c r="B938" s="1"/>
-      <c r="C938" s="1"/>
-      <c r="D938" s="1"/>
-      <c r="E938" s="1"/>
-      <c r="F938" s="1"/>
-      <c r="G938" s="1"/>
-      <c r="H938" s="1"/>
-      <c r="I938" s="1"/>
-      <c r="J938" s="1"/>
-      <c r="K938" s="1"/>
-      <c r="L938" s="1"/>
-      <c r="M938" s="1"/>
-      <c r="N938" s="1"/>
-      <c r="O938" s="1"/>
-      <c r="P938" s="1"/>
-      <c r="Q938" s="1"/>
-      <c r="R938" s="1"/>
-      <c r="S938" s="1"/>
-      <c r="T938" s="1"/>
-      <c r="U938" s="1"/>
-      <c r="V938" s="1"/>
-      <c r="W938" s="1"/>
-      <c r="X938" s="1"/>
-      <c r="Y938" s="1"/>
-      <c r="Z938" s="1"/>
-    </row>
-    <row r="939" ht="14.25" customHeight="1">
-      <c r="A939" s="1"/>
-      <c r="B939" s="1"/>
-      <c r="C939" s="1"/>
-      <c r="D939" s="1"/>
-      <c r="E939" s="1"/>
-      <c r="F939" s="1"/>
-      <c r="G939" s="1"/>
-      <c r="H939" s="1"/>
-      <c r="I939" s="1"/>
-      <c r="J939" s="1"/>
-      <c r="K939" s="1"/>
-      <c r="L939" s="1"/>
-      <c r="M939" s="1"/>
-      <c r="N939" s="1"/>
-      <c r="O939" s="1"/>
-      <c r="P939" s="1"/>
-      <c r="Q939" s="1"/>
-      <c r="R939" s="1"/>
-      <c r="S939" s="1"/>
-      <c r="T939" s="1"/>
-      <c r="U939" s="1"/>
-      <c r="V939" s="1"/>
-      <c r="W939" s="1"/>
-      <c r="X939" s="1"/>
-      <c r="Y939" s="1"/>
-      <c r="Z939" s="1"/>
-    </row>
-    <row r="940" ht="14.25" customHeight="1">
-      <c r="A940" s="1"/>
-      <c r="B940" s="1"/>
-      <c r="C940" s="1"/>
-      <c r="D940" s="1"/>
-      <c r="E940" s="1"/>
-      <c r="F940" s="1"/>
-      <c r="G940" s="1"/>
-      <c r="H940" s="1"/>
-      <c r="I940" s="1"/>
-      <c r="J940" s="1"/>
-      <c r="K940" s="1"/>
-      <c r="L940" s="1"/>
-      <c r="M940" s="1"/>
-      <c r="N940" s="1"/>
-      <c r="O940" s="1"/>
-      <c r="P940" s="1"/>
-      <c r="Q940" s="1"/>
-      <c r="R940" s="1"/>
-      <c r="S940" s="1"/>
-      <c r="T940" s="1"/>
-      <c r="U940" s="1"/>
-      <c r="V940" s="1"/>
-      <c r="W940" s="1"/>
-      <c r="X940" s="1"/>
-      <c r="Y940" s="1"/>
-      <c r="Z940" s="1"/>
-    </row>
-    <row r="941" ht="14.25" customHeight="1">
-      <c r="A941" s="1"/>
-      <c r="B941" s="1"/>
-      <c r="C941" s="1"/>
-      <c r="D941" s="1"/>
-      <c r="E941" s="1"/>
-      <c r="F941" s="1"/>
-      <c r="G941" s="1"/>
-      <c r="H941" s="1"/>
-      <c r="I941" s="1"/>
-      <c r="J941" s="1"/>
-      <c r="K941" s="1"/>
-      <c r="L941" s="1"/>
-      <c r="M941" s="1"/>
-      <c r="N941" s="1"/>
-      <c r="O941" s="1"/>
-      <c r="P941" s="1"/>
-      <c r="Q941" s="1"/>
-      <c r="R941" s="1"/>
-      <c r="S941" s="1"/>
-      <c r="T941" s="1"/>
-      <c r="U941" s="1"/>
-      <c r="V941" s="1"/>
-      <c r="W941" s="1"/>
-      <c r="X941" s="1"/>
-      <c r="Y941" s="1"/>
-      <c r="Z941" s="1"/>
-    </row>
-    <row r="942" ht="14.25" customHeight="1">
-      <c r="A942" s="1"/>
-      <c r="B942" s="1"/>
-      <c r="C942" s="1"/>
-      <c r="D942" s="1"/>
-      <c r="E942" s="1"/>
-      <c r="F942" s="1"/>
-      <c r="G942" s="1"/>
-      <c r="H942" s="1"/>
-      <c r="I942" s="1"/>
-      <c r="J942" s="1"/>
-      <c r="K942" s="1"/>
-      <c r="L942" s="1"/>
-      <c r="M942" s="1"/>
-      <c r="N942" s="1"/>
-      <c r="O942" s="1"/>
-      <c r="P942" s="1"/>
-      <c r="Q942" s="1"/>
-      <c r="R942" s="1"/>
-      <c r="S942" s="1"/>
-      <c r="T942" s="1"/>
-      <c r="U942" s="1"/>
-      <c r="V942" s="1"/>
-      <c r="W942" s="1"/>
-      <c r="X942" s="1"/>
-      <c r="Y942" s="1"/>
-      <c r="Z942" s="1"/>
-    </row>
-    <row r="943" ht="14.25" customHeight="1">
-      <c r="A943" s="1"/>
-      <c r="B943" s="1"/>
-      <c r="C943" s="1"/>
-      <c r="D943" s="1"/>
-      <c r="E943" s="1"/>
-      <c r="F943" s="1"/>
-      <c r="G943" s="1"/>
-      <c r="H943" s="1"/>
-      <c r="I943" s="1"/>
-      <c r="J943" s="1"/>
-      <c r="K943" s="1"/>
-      <c r="L943" s="1"/>
-      <c r="M943" s="1"/>
-      <c r="N943" s="1"/>
-      <c r="O943" s="1"/>
-      <c r="P943" s="1"/>
-      <c r="Q943" s="1"/>
-      <c r="R943" s="1"/>
-      <c r="S943" s="1"/>
-      <c r="T943" s="1"/>
-      <c r="U943" s="1"/>
-      <c r="V943" s="1"/>
-      <c r="W943" s="1"/>
-      <c r="X943" s="1"/>
-      <c r="Y943" s="1"/>
-      <c r="Z943" s="1"/>
-    </row>
-    <row r="944" ht="14.25" customHeight="1">
-      <c r="A944" s="1"/>
-      <c r="B944" s="1"/>
-      <c r="C944" s="1"/>
-      <c r="D944" s="1"/>
-      <c r="E944" s="1"/>
-      <c r="F944" s="1"/>
-      <c r="G944" s="1"/>
-      <c r="H944" s="1"/>
-      <c r="I944" s="1"/>
-      <c r="J944" s="1"/>
-      <c r="K944" s="1"/>
-      <c r="L944" s="1"/>
-      <c r="M944" s="1"/>
-      <c r="N944" s="1"/>
-      <c r="O944" s="1"/>
-      <c r="P944" s="1"/>
-      <c r="Q944" s="1"/>
-      <c r="R944" s="1"/>
-      <c r="S944" s="1"/>
-      <c r="T944" s="1"/>
-      <c r="U944" s="1"/>
-      <c r="V944" s="1"/>
-      <c r="W944" s="1"/>
-      <c r="X944" s="1"/>
-      <c r="Y944" s="1"/>
-      <c r="Z944" s="1"/>
-    </row>
-    <row r="945" ht="14.25" customHeight="1">
-      <c r="A945" s="1"/>
-      <c r="B945" s="1"/>
-      <c r="C945" s="1"/>
-      <c r="D945" s="1"/>
-      <c r="E945" s="1"/>
-      <c r="F945" s="1"/>
-      <c r="G945" s="1"/>
-      <c r="H945" s="1"/>
-      <c r="I945" s="1"/>
-      <c r="J945" s="1"/>
-      <c r="K945" s="1"/>
-      <c r="L945" s="1"/>
-      <c r="M945" s="1"/>
-      <c r="N945" s="1"/>
-      <c r="O945" s="1"/>
-      <c r="P945" s="1"/>
-      <c r="Q945" s="1"/>
-      <c r="R945" s="1"/>
-      <c r="S945" s="1"/>
-      <c r="T945" s="1"/>
-      <c r="U945" s="1"/>
-      <c r="V945" s="1"/>
-      <c r="W945" s="1"/>
-      <c r="X945" s="1"/>
-      <c r="Y945" s="1"/>
-      <c r="Z945" s="1"/>
-    </row>
-    <row r="946" ht="14.25" customHeight="1">
-      <c r="A946" s="1"/>
-      <c r="B946" s="1"/>
-      <c r="C946" s="1"/>
-      <c r="D946" s="1"/>
-      <c r="E946" s="1"/>
-      <c r="F946" s="1"/>
-      <c r="G946" s="1"/>
-      <c r="H946" s="1"/>
-      <c r="I946" s="1"/>
-      <c r="J946" s="1"/>
-      <c r="K946" s="1"/>
-      <c r="L946" s="1"/>
-      <c r="M946" s="1"/>
-      <c r="N946" s="1"/>
-      <c r="O946" s="1"/>
-      <c r="P946" s="1"/>
-      <c r="Q946" s="1"/>
-      <c r="R946" s="1"/>
-      <c r="S946" s="1"/>
-      <c r="T946" s="1"/>
-      <c r="U946" s="1"/>
-      <c r="V946" s="1"/>
-      <c r="W946" s="1"/>
-      <c r="X946" s="1"/>
-      <c r="Y946" s="1"/>
-      <c r="Z946" s="1"/>
-    </row>
-    <row r="947" ht="14.25" customHeight="1">
-      <c r="A947" s="1"/>
-      <c r="B947" s="1"/>
-      <c r="C947" s="1"/>
-      <c r="D947" s="1"/>
-      <c r="E947" s="1"/>
-      <c r="F947" s="1"/>
-      <c r="G947" s="1"/>
-      <c r="H947" s="1"/>
-      <c r="I947" s="1"/>
-      <c r="J947" s="1"/>
-      <c r="K947" s="1"/>
-      <c r="L947" s="1"/>
-      <c r="M947" s="1"/>
-      <c r="N947" s="1"/>
-      <c r="O947" s="1"/>
-      <c r="P947" s="1"/>
-      <c r="Q947" s="1"/>
-      <c r="R947" s="1"/>
-      <c r="S947" s="1"/>
-      <c r="T947" s="1"/>
-      <c r="U947" s="1"/>
-      <c r="V947" s="1"/>
-      <c r="W947" s="1"/>
-      <c r="X947" s="1"/>
-      <c r="Y947" s="1"/>
-      <c r="Z947" s="1"/>
-    </row>
-    <row r="948" ht="14.25" customHeight="1">
-      <c r="A948" s="1"/>
-      <c r="B948" s="1"/>
-      <c r="C948" s="1"/>
-      <c r="D948" s="1"/>
-      <c r="E948" s="1"/>
-      <c r="F948" s="1"/>
-      <c r="G948" s="1"/>
-      <c r="H948" s="1"/>
-      <c r="I948" s="1"/>
-      <c r="J948" s="1"/>
-      <c r="K948" s="1"/>
-      <c r="L948" s="1"/>
-      <c r="M948" s="1"/>
-      <c r="N948" s="1"/>
-      <c r="O948" s="1"/>
-      <c r="P948" s="1"/>
-      <c r="Q948" s="1"/>
-      <c r="R948" s="1"/>
-      <c r="S948" s="1"/>
-      <c r="T948" s="1"/>
-      <c r="U948" s="1"/>
-      <c r="V948" s="1"/>
-      <c r="W948" s="1"/>
-      <c r="X948" s="1"/>
-      <c r="Y948" s="1"/>
-      <c r="Z948" s="1"/>
-    </row>
-    <row r="949" ht="14.25" customHeight="1">
-      <c r="A949" s="1"/>
-      <c r="B949" s="1"/>
-      <c r="C949" s="1"/>
-      <c r="D949" s="1"/>
-      <c r="E949" s="1"/>
-      <c r="F949" s="1"/>
-      <c r="G949" s="1"/>
-      <c r="H949" s="1"/>
-      <c r="I949" s="1"/>
-      <c r="J949" s="1"/>
-      <c r="K949" s="1"/>
-      <c r="L949" s="1"/>
-      <c r="M949" s="1"/>
-      <c r="N949" s="1"/>
-      <c r="O949" s="1"/>
-      <c r="P949" s="1"/>
-      <c r="Q949" s="1"/>
-      <c r="R949" s="1"/>
-      <c r="S949" s="1"/>
-      <c r="T949" s="1"/>
-      <c r="U949" s="1"/>
-      <c r="V949" s="1"/>
-      <c r="W949" s="1"/>
-      <c r="X949" s="1"/>
-      <c r="Y949" s="1"/>
-      <c r="Z949" s="1"/>
-    </row>
-    <row r="950" ht="14.25" customHeight="1">
-      <c r="A950" s="1"/>
-      <c r="B950" s="1"/>
-      <c r="C950" s="1"/>
-      <c r="D950" s="1"/>
-      <c r="E950" s="1"/>
-      <c r="F950" s="1"/>
-      <c r="G950" s="1"/>
-      <c r="H950" s="1"/>
-      <c r="I950" s="1"/>
-      <c r="J950" s="1"/>
-      <c r="K950" s="1"/>
-      <c r="L950" s="1"/>
-      <c r="M950" s="1"/>
-      <c r="N950" s="1"/>
-      <c r="O950" s="1"/>
-      <c r="P950" s="1"/>
-      <c r="Q950" s="1"/>
-      <c r="R950" s="1"/>
-      <c r="S950" s="1"/>
-      <c r="T950" s="1"/>
-      <c r="U950" s="1"/>
-      <c r="V950" s="1"/>
-      <c r="W950" s="1"/>
-      <c r="X950" s="1"/>
-      <c r="Y950" s="1"/>
-      <c r="Z950" s="1"/>
-    </row>
-    <row r="951" ht="14.25" customHeight="1">
-      <c r="A951" s="1"/>
-      <c r="B951" s="1"/>
-      <c r="C951" s="1"/>
-      <c r="D951" s="1"/>
-      <c r="E951" s="1"/>
-      <c r="F951" s="1"/>
-      <c r="G951" s="1"/>
-      <c r="H951" s="1"/>
-      <c r="I951" s="1"/>
-      <c r="J951" s="1"/>
-      <c r="K951" s="1"/>
-      <c r="L951" s="1"/>
-      <c r="M951" s="1"/>
-      <c r="N951" s="1"/>
-      <c r="O951" s="1"/>
-      <c r="P951" s="1"/>
-      <c r="Q951" s="1"/>
-      <c r="R951" s="1"/>
-      <c r="S951" s="1"/>
-      <c r="T951" s="1"/>
-      <c r="U951" s="1"/>
-      <c r="V951" s="1"/>
-      <c r="W951" s="1"/>
-      <c r="X951" s="1"/>
-      <c r="Y951" s="1"/>
-      <c r="Z951" s="1"/>
-    </row>
-    <row r="952" ht="14.25" customHeight="1">
-      <c r="A952" s="1"/>
-      <c r="B952" s="1"/>
-      <c r="C952" s="1"/>
-      <c r="D952" s="1"/>
-      <c r="E952" s="1"/>
-      <c r="F952" s="1"/>
-      <c r="G952" s="1"/>
-      <c r="H952" s="1"/>
-      <c r="I952" s="1"/>
-      <c r="J952" s="1"/>
-      <c r="K952" s="1"/>
-      <c r="L952" s="1"/>
-      <c r="M952" s="1"/>
-      <c r="N952" s="1"/>
-      <c r="O952" s="1"/>
-      <c r="P952" s="1"/>
-      <c r="Q952" s="1"/>
-      <c r="R952" s="1"/>
-      <c r="S952" s="1"/>
-      <c r="T952" s="1"/>
-      <c r="U952" s="1"/>
-      <c r="V952" s="1"/>
-      <c r="W952" s="1"/>
-      <c r="X952" s="1"/>
-      <c r="Y952" s="1"/>
-      <c r="Z952" s="1"/>
-    </row>
-    <row r="953" ht="14.25" customHeight="1">
-      <c r="A953" s="1"/>
-      <c r="B953" s="1"/>
-      <c r="C953" s="1"/>
-      <c r="D953" s="1"/>
-      <c r="E953" s="1"/>
-      <c r="F953" s="1"/>
-      <c r="G953" s="1"/>
-      <c r="H953" s="1"/>
-      <c r="I953" s="1"/>
-      <c r="J953" s="1"/>
-      <c r="K953" s="1"/>
-      <c r="L953" s="1"/>
-      <c r="M953" s="1"/>
-      <c r="N953" s="1"/>
-      <c r="O953" s="1"/>
-      <c r="P953" s="1"/>
-      <c r="Q953" s="1"/>
-      <c r="R953" s="1"/>
-      <c r="S953" s="1"/>
-      <c r="T953" s="1"/>
-      <c r="U953" s="1"/>
-      <c r="V953" s="1"/>
-      <c r="W953" s="1"/>
-      <c r="X953" s="1"/>
-      <c r="Y953" s="1"/>
-      <c r="Z953" s="1"/>
-    </row>
-    <row r="954" ht="14.25" customHeight="1">
-      <c r="A954" s="1"/>
-      <c r="B954" s="1"/>
-      <c r="C954" s="1"/>
-      <c r="D954" s="1"/>
-      <c r="E954" s="1"/>
-      <c r="F954" s="1"/>
-      <c r="G954" s="1"/>
-      <c r="H954" s="1"/>
-      <c r="I954" s="1"/>
-      <c r="J954" s="1"/>
-      <c r="K954" s="1"/>
-      <c r="L954" s="1"/>
-      <c r="M954" s="1"/>
-      <c r="N954" s="1"/>
-      <c r="O954" s="1"/>
-      <c r="P954" s="1"/>
-      <c r="Q954" s="1"/>
-      <c r="R954" s="1"/>
-      <c r="S954" s="1"/>
-      <c r="T954" s="1"/>
-      <c r="U954" s="1"/>
-      <c r="V954" s="1"/>
-      <c r="W954" s="1"/>
-      <c r="X954" s="1"/>
-      <c r="Y954" s="1"/>
-      <c r="Z954" s="1"/>
-    </row>
-    <row r="955" ht="14.25" customHeight="1">
-      <c r="A955" s="1"/>
-      <c r="B955" s="1"/>
-      <c r="C955" s="1"/>
-      <c r="D955" s="1"/>
-      <c r="E955" s="1"/>
-      <c r="F955" s="1"/>
-      <c r="G955" s="1"/>
-      <c r="H955" s="1"/>
-      <c r="I955" s="1"/>
-      <c r="J955" s="1"/>
-      <c r="K955" s="1"/>
-      <c r="L955" s="1"/>
-      <c r="M955" s="1"/>
-      <c r="N955" s="1"/>
-      <c r="O955" s="1"/>
-      <c r="P955" s="1"/>
-      <c r="Q955" s="1"/>
-      <c r="R955" s="1"/>
-      <c r="S955" s="1"/>
-      <c r="T955" s="1"/>
-      <c r="U955" s="1"/>
-      <c r="V955" s="1"/>
-      <c r="W955" s="1"/>
-      <c r="X955" s="1"/>
-      <c r="Y955" s="1"/>
-      <c r="Z955" s="1"/>
-    </row>
-    <row r="956" ht="14.25" customHeight="1">
-      <c r="A956" s="1"/>
-      <c r="B956" s="1"/>
-      <c r="C956" s="1"/>
-      <c r="D956" s="1"/>
-      <c r="E956" s="1"/>
-      <c r="F956" s="1"/>
-      <c r="G956" s="1"/>
-      <c r="H956" s="1"/>
-      <c r="I956" s="1"/>
-      <c r="J956" s="1"/>
-      <c r="K956" s="1"/>
-      <c r="L956" s="1"/>
-      <c r="M956" s="1"/>
-      <c r="N956" s="1"/>
-      <c r="O956" s="1"/>
-      <c r="P956" s="1"/>
-      <c r="Q956" s="1"/>
-      <c r="R956" s="1"/>
-      <c r="S956" s="1"/>
-      <c r="T956" s="1"/>
-      <c r="U956" s="1"/>
-      <c r="V956" s="1"/>
-      <c r="W956" s="1"/>
-      <c r="X956" s="1"/>
-      <c r="Y956" s="1"/>
-      <c r="Z956" s="1"/>
-    </row>
-    <row r="957" ht="14.25" customHeight="1">
-      <c r="A957" s="1"/>
-      <c r="B957" s="1"/>
-      <c r="C957" s="1"/>
-      <c r="D957" s="1"/>
-      <c r="E957" s="1"/>
-      <c r="F957" s="1"/>
-      <c r="G957" s="1"/>
-      <c r="H957" s="1"/>
-      <c r="I957" s="1"/>
-      <c r="J957" s="1"/>
-      <c r="K957" s="1"/>
-      <c r="L957" s="1"/>
-      <c r="M957" s="1"/>
-      <c r="N957" s="1"/>
-      <c r="O957" s="1"/>
-      <c r="P957" s="1"/>
-      <c r="Q957" s="1"/>
-      <c r="R957" s="1"/>
-      <c r="S957" s="1"/>
-      <c r="T957" s="1"/>
-      <c r="U957" s="1"/>
-      <c r="V957" s="1"/>
-      <c r="W957" s="1"/>
-      <c r="X957" s="1"/>
-      <c r="Y957" s="1"/>
-      <c r="Z957" s="1"/>
-    </row>
-    <row r="958" ht="14.25" customHeight="1">
-      <c r="A958" s="1"/>
-      <c r="B958" s="1"/>
-      <c r="C958" s="1"/>
-      <c r="D958" s="1"/>
-      <c r="E958" s="1"/>
-      <c r="F958" s="1"/>
-      <c r="G958" s="1"/>
-      <c r="H958" s="1"/>
-      <c r="I958" s="1"/>
-      <c r="J958" s="1"/>
-      <c r="K958" s="1"/>
-      <c r="L958" s="1"/>
-      <c r="M958" s="1"/>
-      <c r="N958" s="1"/>
-      <c r="O958" s="1"/>
-      <c r="P958" s="1"/>
-      <c r="Q958" s="1"/>
-      <c r="R958" s="1"/>
-      <c r="S958" s="1"/>
-      <c r="T958" s="1"/>
-      <c r="U958" s="1"/>
-      <c r="V958" s="1"/>
-      <c r="W958" s="1"/>
-      <c r="X958" s="1"/>
-      <c r="Y958" s="1"/>
-      <c r="Z958" s="1"/>
-    </row>
-    <row r="959" ht="14.25" customHeight="1">
-      <c r="A959" s="1"/>
-      <c r="B959" s="1"/>
-      <c r="C959" s="1"/>
-      <c r="D959" s="1"/>
-      <c r="E959" s="1"/>
-      <c r="F959" s="1"/>
-      <c r="G959" s="1"/>
-      <c r="H959" s="1"/>
-      <c r="I959" s="1"/>
-      <c r="J959" s="1"/>
-      <c r="K959" s="1"/>
-      <c r="L959" s="1"/>
-      <c r="M959" s="1"/>
-      <c r="N959" s="1"/>
-      <c r="O959" s="1"/>
-      <c r="P959" s="1"/>
-      <c r="Q959" s="1"/>
-      <c r="R959" s="1"/>
-      <c r="S959" s="1"/>
-      <c r="T959" s="1"/>
-      <c r="U959" s="1"/>
-      <c r="V959" s="1"/>
-      <c r="W959" s="1"/>
-      <c r="X959" s="1"/>
-      <c r="Y959" s="1"/>
-      <c r="Z959" s="1"/>
-    </row>
-    <row r="960" ht="14.25" customHeight="1">
-      <c r="A960" s="1"/>
-      <c r="B960" s="1"/>
-      <c r="C960" s="1"/>
-      <c r="D960" s="1"/>
-      <c r="E960" s="1"/>
-      <c r="F960" s="1"/>
-      <c r="G960" s="1"/>
-      <c r="H960" s="1"/>
-      <c r="I960" s="1"/>
-      <c r="J960" s="1"/>
-      <c r="K960" s="1"/>
-      <c r="L960" s="1"/>
-      <c r="M960" s="1"/>
-      <c r="N960" s="1"/>
-      <c r="O960" s="1"/>
-      <c r="P960" s="1"/>
-      <c r="Q960" s="1"/>
-      <c r="R960" s="1"/>
-      <c r="S960" s="1"/>
-      <c r="T960" s="1"/>
-      <c r="U960" s="1"/>
-      <c r="V960" s="1"/>
-      <c r="W960" s="1"/>
-      <c r="X960" s="1"/>
-      <c r="Y960" s="1"/>
-      <c r="Z960" s="1"/>
-    </row>
-    <row r="961" ht="14.25" customHeight="1">
-      <c r="A961" s="1"/>
-      <c r="B961" s="1"/>
-      <c r="C961" s="1"/>
-      <c r="D961" s="1"/>
-      <c r="E961" s="1"/>
-      <c r="F961" s="1"/>
-      <c r="G961" s="1"/>
-      <c r="H961" s="1"/>
-      <c r="I961" s="1"/>
-      <c r="J961" s="1"/>
-      <c r="K961" s="1"/>
-      <c r="L961" s="1"/>
-      <c r="M961" s="1"/>
-      <c r="N961" s="1"/>
-      <c r="O961" s="1"/>
-      <c r="P961" s="1"/>
-      <c r="Q961" s="1"/>
-      <c r="R961" s="1"/>
-      <c r="S961" s="1"/>
-      <c r="T961" s="1"/>
-      <c r="U961" s="1"/>
-      <c r="V961" s="1"/>
-      <c r="W961" s="1"/>
-      <c r="X961" s="1"/>
-      <c r="Y961" s="1"/>
-      <c r="Z961" s="1"/>
-    </row>
-    <row r="962" ht="14.25" customHeight="1">
-      <c r="A962" s="1"/>
-      <c r="B962" s="1"/>
-      <c r="C962" s="1"/>
-      <c r="D962" s="1"/>
-      <c r="E962" s="1"/>
-      <c r="F962" s="1"/>
-      <c r="G962" s="1"/>
-      <c r="H962" s="1"/>
-      <c r="I962" s="1"/>
-      <c r="J962" s="1"/>
-      <c r="K962" s="1"/>
-      <c r="L962" s="1"/>
-      <c r="M962" s="1"/>
-      <c r="N962" s="1"/>
-      <c r="O962" s="1"/>
-      <c r="P962" s="1"/>
-      <c r="Q962" s="1"/>
-      <c r="R962" s="1"/>
-      <c r="S962" s="1"/>
-      <c r="T962" s="1"/>
-      <c r="U962" s="1"/>
-      <c r="V962" s="1"/>
-      <c r="W962" s="1"/>
-      <c r="X962" s="1"/>
-      <c r="Y962" s="1"/>
-      <c r="Z962" s="1"/>
-    </row>
-    <row r="963" ht="14.25" customHeight="1">
-      <c r="A963" s="1"/>
-      <c r="B963" s="1"/>
-      <c r="C963" s="1"/>
-      <c r="D963" s="1"/>
-      <c r="E963" s="1"/>
-      <c r="F963" s="1"/>
-      <c r="G963" s="1"/>
-      <c r="H963" s="1"/>
-      <c r="I963" s="1"/>
-      <c r="J963" s="1"/>
-      <c r="K963" s="1"/>
-      <c r="L963" s="1"/>
-      <c r="M963" s="1"/>
-      <c r="N963" s="1"/>
-      <c r="O963" s="1"/>
-      <c r="P963" s="1"/>
-      <c r="Q963" s="1"/>
-      <c r="R963" s="1"/>
-      <c r="S963" s="1"/>
-      <c r="T963" s="1"/>
-      <c r="U963" s="1"/>
-      <c r="V963" s="1"/>
-      <c r="W963" s="1"/>
-      <c r="X963" s="1"/>
-      <c r="Y963" s="1"/>
-      <c r="Z963" s="1"/>
-    </row>
-    <row r="964" ht="14.25" customHeight="1">
-      <c r="A964" s="1"/>
-      <c r="B964" s="1"/>
-      <c r="C964" s="1"/>
-      <c r="D964" s="1"/>
-      <c r="E964" s="1"/>
-      <c r="F964" s="1"/>
-      <c r="G964" s="1"/>
-      <c r="H964" s="1"/>
-      <c r="I964" s="1"/>
-      <c r="J964" s="1"/>
-      <c r="K964" s="1"/>
-      <c r="L964" s="1"/>
-      <c r="M964" s="1"/>
-      <c r="N964" s="1"/>
-      <c r="O964" s="1"/>
-      <c r="P964" s="1"/>
-      <c r="Q964" s="1"/>
-      <c r="R964" s="1"/>
-      <c r="S964" s="1"/>
-      <c r="T964" s="1"/>
-      <c r="U964" s="1"/>
-      <c r="V964" s="1"/>
-      <c r="W964" s="1"/>
-      <c r="X964" s="1"/>
-      <c r="Y964" s="1"/>
-      <c r="Z964" s="1"/>
-    </row>
-    <row r="965" ht="14.25" customHeight="1">
-      <c r="A965" s="1"/>
-      <c r="B965" s="1"/>
-      <c r="C965" s="1"/>
-      <c r="D965" s="1"/>
-      <c r="E965" s="1"/>
-      <c r="F965" s="1"/>
-      <c r="G965" s="1"/>
-      <c r="H965" s="1"/>
-      <c r="I965" s="1"/>
-      <c r="J965" s="1"/>
-      <c r="K965" s="1"/>
-      <c r="L965" s="1"/>
-      <c r="M965" s="1"/>
-      <c r="N965" s="1"/>
-      <c r="O965" s="1"/>
-      <c r="P965" s="1"/>
-      <c r="Q965" s="1"/>
-      <c r="R965" s="1"/>
-      <c r="S965" s="1"/>
-      <c r="T965" s="1"/>
-      <c r="U965" s="1"/>
-      <c r="V965" s="1"/>
-      <c r="W965" s="1"/>
-      <c r="X965" s="1"/>
-      <c r="Y965" s="1"/>
-      <c r="Z965" s="1"/>
-    </row>
-    <row r="966" ht="14.25" customHeight="1">
-      <c r="A966" s="1"/>
-      <c r="B966" s="1"/>
-      <c r="C966" s="1"/>
-      <c r="D966" s="1"/>
-      <c r="E966" s="1"/>
-      <c r="F966" s="1"/>
-      <c r="G966" s="1"/>
-      <c r="H966" s="1"/>
-      <c r="I966" s="1"/>
-      <c r="J966" s="1"/>
-      <c r="K966" s="1"/>
-      <c r="L966" s="1"/>
-      <c r="M966" s="1"/>
-      <c r="N966" s="1"/>
-      <c r="O966" s="1"/>
-      <c r="P966" s="1"/>
-      <c r="Q966" s="1"/>
-      <c r="R966" s="1"/>
-      <c r="S966" s="1"/>
-      <c r="T966" s="1"/>
-      <c r="U966" s="1"/>
-      <c r="V966" s="1"/>
-      <c r="W966" s="1"/>
-      <c r="X966" s="1"/>
-      <c r="Y966" s="1"/>
-      <c r="Z966" s="1"/>
-    </row>
-    <row r="967" ht="14.25" customHeight="1">
-      <c r="A967" s="1"/>
-      <c r="B967" s="1"/>
-      <c r="C967" s="1"/>
-      <c r="D967" s="1"/>
-      <c r="E967" s="1"/>
-      <c r="F967" s="1"/>
-      <c r="G967" s="1"/>
-      <c r="H967" s="1"/>
-      <c r="I967" s="1"/>
-      <c r="J967" s="1"/>
-      <c r="K967" s="1"/>
-      <c r="L967" s="1"/>
-      <c r="M967" s="1"/>
-      <c r="N967" s="1"/>
-      <c r="O967" s="1"/>
-      <c r="P967" s="1"/>
-      <c r="Q967" s="1"/>
-      <c r="R967" s="1"/>
-      <c r="S967" s="1"/>
-      <c r="T967" s="1"/>
-      <c r="U967" s="1"/>
-      <c r="V967" s="1"/>
-      <c r="W967" s="1"/>
-      <c r="X967" s="1"/>
-      <c r="Y967" s="1"/>
-      <c r="Z967" s="1"/>
-    </row>
-    <row r="968" ht="14.25" customHeight="1">
-      <c r="A968" s="1"/>
-      <c r="B968" s="1"/>
-      <c r="C968" s="1"/>
-      <c r="D968" s="1"/>
-      <c r="E968" s="1"/>
-      <c r="F968" s="1"/>
-      <c r="G968" s="1"/>
-      <c r="H968" s="1"/>
-      <c r="I968" s="1"/>
-      <c r="J968" s="1"/>
-      <c r="K968" s="1"/>
-      <c r="L968" s="1"/>
-      <c r="M968" s="1"/>
-      <c r="N968" s="1"/>
-      <c r="O968" s="1"/>
-      <c r="P968" s="1"/>
-      <c r="Q968" s="1"/>
-      <c r="R968" s="1"/>
-      <c r="S968" s="1"/>
-      <c r="T968" s="1"/>
-      <c r="U968" s="1"/>
-      <c r="V968" s="1"/>
-      <c r="W968" s="1"/>
-      <c r="X968" s="1"/>
-      <c r="Y968" s="1"/>
-      <c r="Z968" s="1"/>
-    </row>
-    <row r="969" ht="14.25" customHeight="1">
-      <c r="A969" s="1"/>
-      <c r="B969" s="1"/>
-      <c r="C969" s="1"/>
-      <c r="D969" s="1"/>
-      <c r="E969" s="1"/>
-      <c r="F969" s="1"/>
-      <c r="G969" s="1"/>
-      <c r="H969" s="1"/>
-      <c r="I969" s="1"/>
-      <c r="J969" s="1"/>
-      <c r="K969" s="1"/>
-      <c r="L969" s="1"/>
-      <c r="M969" s="1"/>
-      <c r="N969" s="1"/>
-      <c r="O969" s="1"/>
-      <c r="P969" s="1"/>
-      <c r="Q969" s="1"/>
-      <c r="R969" s="1"/>
-      <c r="S969" s="1"/>
-      <c r="T969" s="1"/>
-      <c r="U969" s="1"/>
-      <c r="V969" s="1"/>
-      <c r="W969" s="1"/>
-      <c r="X969" s="1"/>
-      <c r="Y969" s="1"/>
-      <c r="Z969" s="1"/>
-    </row>
-    <row r="970" ht="14.25" customHeight="1">
-      <c r="A970" s="1"/>
-      <c r="B970" s="1"/>
-      <c r="C970" s="1"/>
-      <c r="D970" s="1"/>
-      <c r="E970" s="1"/>
-      <c r="F970" s="1"/>
-      <c r="G970" s="1"/>
-      <c r="H970" s="1"/>
-      <c r="I970" s="1"/>
-      <c r="J970" s="1"/>
-      <c r="K970" s="1"/>
-      <c r="L970" s="1"/>
-      <c r="M970" s="1"/>
-      <c r="N970" s="1"/>
-      <c r="O970" s="1"/>
-      <c r="P970" s="1"/>
-      <c r="Q970" s="1"/>
-      <c r="R970" s="1"/>
-      <c r="S970" s="1"/>
-      <c r="T970" s="1"/>
-      <c r="U970" s="1"/>
-      <c r="V970" s="1"/>
-      <c r="W970" s="1"/>
-      <c r="X970" s="1"/>
-      <c r="Y970" s="1"/>
-      <c r="Z970" s="1"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
